--- a/biology/Zoologie/Conus_quasimagus/Conus_quasimagus.xlsx
+++ b/biology/Zoologie/Conus_quasimagus/Conus_quasimagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus quasimagus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de la coquille atteint 59,3 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine d'escargot conique se trouve au large des Philippines.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus quasimagus a été décrite pour la première fois en 2016 par le malacologiste italien Luigi Bozzetti (d)[1] dans « Malacologia Mostra Mondiale »[2],[3].
-Synonymes
-Conus (Pionoconus) quasimagus (Bozzetti, 2016) · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus quasimagus a été décrite pour la première fois en 2016 par le malacologiste italien Luigi Bozzetti (d) dans « Malacologia Mostra Mondiale »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_quasimagus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_quasimagus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Pionoconus) quasimagus (Bozzetti, 2016) · appellation alternative
 Conus (Pionoconus) vezzaroi (T. Cossignani, 2016) · non accepté
 Conus vezzaroi (T. Cossignani, 2016) · non accepté
 Pionoconus quasimagus Bozzetti, 2016 · non accepté (combinaison originale)
